--- a/document/数据库/数据/t_research_result .xlsx
+++ b/document/数据库/数据/t_research_result .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>name</t>
   </si>
@@ -183,6 +183,10 @@
       </rPr>
       <t>届日内瓦国际发明展</t>
     </r>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -562,224 +566,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.21875" customWidth="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1"/>
+    <col min="2" max="2" width="75.21875" customWidth="1"/>
+    <col min="3" max="3" width="34.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>2016</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>2016</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>2016</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>2016</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>2015</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>2015</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>2015</v>
       </c>
     </row>
